--- a/backend/Corello_RuaOscarFreire.xlsx
+++ b/backend/Corello_RuaOscarFreire.xlsx
@@ -394,17 +394,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ankle Boot Pelica Gola - Caramelo 33</t>
+          <t>Bota Feminina Ankle Boot - Couro Floater Preto 33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O detalhe de gola no tornozelo traz ao modelo um toque moderno e charmoso, ideal para conferir aos looks do dia-a-dia o destaque necessario</t>
+          <t>Bota Feminina Ankle Boot. A bota Ankle Boot Ziper Cross e confeccionada em couro, com ziper na lateral e e super pratica e versatil para finalizar looks do dia a dia, dando personalidade e estilo nas producoes. Dicas Corello. Unindo conforto e estilo, a ankle boot e aquele coringa que nao pode faltar nos seus looks. Ela combina com praticamente tudo e pode ser usada a qualquer hora do dia. Altura do cano: 11 cm&lt;BR&gt;Circunferencia do cano: 27,5 cm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>439.90</t>
+          <t>389.90</t>
         </is>
       </c>
     </row>
@@ -416,22 +416,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sandalia</t>
+          <t>Bota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sandalia Feminina Ankle Boot Lace Up Recortes - Couro Nobuck Pre</t>
+          <t>Bota Feminina Ankle Boot - Couro Floater Preto 33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sandalia Feminina Ankle Boot Lace Up Recortes. A Sandalia Ankle Boot Lace Up Recortes e feita de couro nobuck e tem um charmoso recorte nas laterais da sandalia, dando um toque elegante e ousado. Tem ziper na parte traseira e cadarco para melhor ajuste ao corpo. Promete ser o ponto alto para compor producoes cheias de atitude e estilo. Curiosidades Corello. O couro nobuck e parecido com a textura da camurca. E a parte externa do couro, em um tom opaco, aveludado e suave</t>
+          <t>Bota Feminina Ankle Boot. A bota Ankle Boot Ziper Cross e confeccionada em couro, com ziper na lateral e e super pratica e versatil para finalizar looks do dia a dia, dando personalidade e estilo nas producoes. Dicas Corello. Unindo conforto e estilo, a ankle boot e aquele coringa que nao pode faltar nos seus looks. Ela combina com praticamente tudo e pode ser usada a qualquer hora do dia. Altura do cano: 11 cm&lt;BR&gt;Circunferencia do cano: 27,5 cm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>469.90</t>
+          <t>389.90</t>
         </is>
       </c>
     </row>
